--- a/Databases/All Signaling Pathways.xlsx
+++ b/Databases/All Signaling Pathways.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Troks27/Desktop/8. Leticia All/Python TrokaChat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troks27/Desktop/Python TrokaChat 3.5.24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC18E82C-9375-8640-B86C-FD84630A9ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4148B5C0-6CE2-084A-ACB1-F17C273B3184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="4300" windowWidth="26040" windowHeight="14940" xr2:uid="{7B95344F-166D-1D4B-9B7A-142DDA7F163B}"/>
+    <workbookView xWindow="22860" yWindow="1720" windowWidth="30040" windowHeight="25040" xr2:uid="{7B95344F-166D-1D4B-9B7A-142DDA7F163B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$2023</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15101" uniqueCount="3398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15122" uniqueCount="3402">
   <si>
     <t>ligand</t>
   </si>
@@ -10229,6 +10233,18 @@
   </si>
   <si>
     <t>LGALS9_CD44</t>
+  </si>
+  <si>
+    <t>IL17A_IL17RA</t>
+  </si>
+  <si>
+    <t>IL17F_IL17RC</t>
+  </si>
+  <si>
+    <t>IL17A_IL17RC</t>
+  </si>
+  <si>
+    <t>IL17RB</t>
   </si>
 </sst>
 </file>
@@ -10580,13 +10596,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53820D92-6E8B-0040-AA95-2C6EFE14687A}">
-  <dimension ref="A1:K2020"/>
+  <dimension ref="A1:K2023"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B2021" sqref="B2021:B2023"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -58400,7 +58420,7 @@
         <v>2634</v>
       </c>
       <c r="B1665" t="s">
-        <v>2141</v>
+        <v>3401</v>
       </c>
       <c r="C1665" t="s">
         <v>2141</v>
@@ -68007,7 +68027,86 @@
         <v>1297</v>
       </c>
     </row>
+    <row r="2021" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2021" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>2127</v>
+      </c>
+      <c r="G2021">
+        <v>1</v>
+      </c>
+      <c r="H2021" t="s">
+        <v>3398</v>
+      </c>
+      <c r="I2021" t="s">
+        <v>3398</v>
+      </c>
+      <c r="J2021" t="s">
+        <v>2130</v>
+      </c>
+      <c r="K2021" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2022" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G2022">
+        <v>1</v>
+      </c>
+      <c r="H2022" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I2022" t="s">
+        <v>3399</v>
+      </c>
+      <c r="J2022" t="s">
+        <v>2130</v>
+      </c>
+      <c r="K2022" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2023" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G2023">
+        <v>1</v>
+      </c>
+      <c r="H2023" t="s">
+        <v>3400</v>
+      </c>
+      <c r="I2023" t="s">
+        <v>3400</v>
+      </c>
+      <c r="J2023" t="s">
+        <v>2130</v>
+      </c>
+      <c r="K2023" t="s">
+        <v>1297</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="J1:J2023" xr:uid="{53820D92-6E8B-0040-AA95-2C6EFE14687A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>